--- a/AAII_Financials/Yearly/KGJI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KGJI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>KGJI</t>
   </si>
@@ -2013,11 +2013,11 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>15700</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>20900</v>
@@ -2074,10 +2074,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>40800</v>
       </c>
       <c r="E59" s="3">
-        <v>6500</v>
+        <v>25400</v>
       </c>
       <c r="F59" s="3">
         <v>8700</v>
